--- a/data/trans_orig/P50_2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P50_2-Provincia-trans_orig.xlsx
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8185</v>
+        <v>7257</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005608827895568514</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03641000357650047</v>
+        <v>0.03228106206840697</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7342</v>
+        <v>7189</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003391445563950895</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01974756109668514</v>
+        <v>0.01933603399867457</v>
       </c>
     </row>
     <row r="5">
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4779</v>
+        <v>3760</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.003233130691175034</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02125937753468524</v>
+        <v>0.01672677545543837</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>4287</v>
+        <v>3583</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.00195495154146598</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01153024675556886</v>
+        <v>0.009638397944853392</v>
       </c>
     </row>
     <row r="6">
@@ -868,19 +868,19 @@
         <v>6078</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2477</v>
+        <v>2069</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12286</v>
+        <v>12455</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02703731160452449</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01101830140023555</v>
+        <v>0.009202055471338061</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05465457388684752</v>
+        <v>0.05540287781810554</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5070</v>
+        <v>5152</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.00708829514475171</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03449180256795877</v>
+        <v>0.03505507959176177</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>7</v>
@@ -910,19 +910,19 @@
         <v>7120</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3082</v>
+        <v>3104</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>14213</v>
+        <v>14022</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01915070901042482</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.008290357446260086</v>
+        <v>0.008349477560723659</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03822995820095467</v>
+        <v>0.03771541073231083</v>
       </c>
     </row>
     <row r="7">
@@ -939,19 +939,19 @@
         <v>216736</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>209783</v>
+        <v>209262</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>221097</v>
+        <v>221364</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.964120729808732</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9331890049523093</v>
+        <v>0.9308715853880444</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.983520200766931</v>
+        <v>0.9847064522645537</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>129</v>
@@ -960,7 +960,7 @@
         <v>145938</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>141910</v>
+        <v>141828</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>146980</v>
@@ -969,7 +969,7 @@
         <v>0.9929117048552483</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9655081974320412</v>
+        <v>0.9649449204082382</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -981,19 +981,19 @@
         <v>362674</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>355211</v>
+        <v>355444</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>367441</v>
+        <v>367460</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9755028938841583</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9554295205716707</v>
+        <v>0.9560561074757941</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9883233360136834</v>
+        <v>0.9883744203888657</v>
       </c>
     </row>
     <row r="8">
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5386</v>
+        <v>5463</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.004097157594459179</v>
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02211819944882673</v>
+        <v>0.02243781831284181</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5633</v>
+        <v>5070</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001642370833899317</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.009272987190912246</v>
+        <v>0.00834694442498375</v>
       </c>
     </row>
     <row r="11">
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5932</v>
+        <v>4895</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.002911225563227605</v>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01629845916141792</v>
+        <v>0.01344915429507895</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>5305</v>
+        <v>6913</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.001744242881767373</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.008733116217758049</v>
+        <v>0.01137998149106034</v>
       </c>
     </row>
     <row r="12">
@@ -1258,7 +1258,7 @@
         <v>362877</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>358005</v>
+        <v>359042</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>363937</v>
@@ -1267,7 +1267,7 @@
         <v>0.9970887744367724</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9837015408385816</v>
+        <v>0.986550845704921</v>
       </c>
       <c r="I12" s="6" t="n">
         <v>1</v>
@@ -1279,7 +1279,7 @@
         <v>242494</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>238106</v>
+        <v>238029</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>243492</v>
@@ -1288,7 +1288,7 @@
         <v>0.9959028424055408</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9778818005511717</v>
+        <v>0.9775621816871585</v>
       </c>
       <c r="P12" s="6" t="n">
         <v>1</v>
@@ -1300,7 +1300,7 @@
         <v>605372</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>599265</v>
+        <v>600043</v>
       </c>
       <c r="T12" s="5" t="n">
         <v>607429</v>
@@ -1309,7 +1309,7 @@
         <v>0.9966133862843333</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9865597818537306</v>
+        <v>0.9878406320225688</v>
       </c>
       <c r="W12" s="6" t="n">
         <v>1</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5416</v>
+        <v>5920</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.007213418216691067</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.036477934328938</v>
+        <v>0.03987625613231957</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>6421</v>
+        <v>6439</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.002725401030042175</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01634072131905386</v>
+        <v>0.01638578703020595</v>
       </c>
     </row>
     <row r="16">
@@ -1574,7 +1574,7 @@
         <v>147400</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>143055</v>
+        <v>142551</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>148471</v>
@@ -1583,7 +1583,7 @@
         <v>0.9927865817833089</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.963522065671062</v>
+        <v>0.9601237438676811</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1595,7 +1595,7 @@
         <v>391894</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>386544</v>
+        <v>386526</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>392965</v>
@@ -1604,7 +1604,7 @@
         <v>0.9972745989699578</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9836592786809462</v>
+        <v>0.983614212969794</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>4694</v>
+        <v>4551</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.005075692231474563</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0263496883879278</v>
+        <v>0.02554776752973057</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>5028</v>
+        <v>4547</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.001929785253986838</v>
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01072975424339908</v>
+        <v>0.009703190336738339</v>
       </c>
     </row>
     <row r="22">
@@ -1869,7 +1869,7 @@
         <v>177245</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>173455</v>
+        <v>173598</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>178149</v>
@@ -1878,7 +1878,7 @@
         <v>0.9949243077685255</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9736503116120722</v>
+        <v>0.9744522324702695</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -1890,7 +1890,7 @@
         <v>467661</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>463537</v>
+        <v>464018</v>
       </c>
       <c r="T22" s="5" t="n">
         <v>468565</v>
@@ -1899,7 +1899,7 @@
         <v>0.9980702147460132</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9892702457566011</v>
+        <v>0.9902968096632616</v>
       </c>
       <c r="W22" s="6" t="n">
         <v>1</v>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>4868</v>
+        <v>4829</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.001828984842799593</v>
@@ -2579,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.009341507014797204</v>
+        <v>0.009267709773012073</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1</v>
@@ -2591,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>4777</v>
+        <v>5204</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.002879042587411988</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01451863147386287</v>
+        <v>0.01581746403832865</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>2</v>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>6666</v>
+        <v>7078</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.002235396634655511</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.007840929674730939</v>
+        <v>0.008325891623745573</v>
       </c>
     </row>
     <row r="36">
@@ -2685,7 +2685,7 @@
         <v>520139</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>516224</v>
+        <v>516263</v>
       </c>
       <c r="F37" s="5" t="n">
         <v>521092</v>
@@ -2694,7 +2694,7 @@
         <v>0.9981710151572004</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9906584929852029</v>
+        <v>0.9907322902269879</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>1</v>
@@ -2706,7 +2706,7 @@
         <v>328081</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>324251</v>
+        <v>323824</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>329028</v>
@@ -2715,7 +2715,7 @@
         <v>0.997120957412588</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9854813685261371</v>
+        <v>0.9841825359616705</v>
       </c>
       <c r="P37" s="6" t="n">
         <v>1</v>
@@ -2727,7 +2727,7 @@
         <v>848220</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>843454</v>
+        <v>843042</v>
       </c>
       <c r="T37" s="5" t="n">
         <v>850120</v>
@@ -2736,7 +2736,7 @@
         <v>0.9977646033653444</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.992159070325269</v>
+        <v>0.9916741083762529</v>
       </c>
       <c r="W37" s="6" t="n">
         <v>1</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>5292</v>
+        <v>4725</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.001734101854209986</v>
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.008817032848147346</v>
+        <v>0.007871691842507533</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>0</v>
@@ -2868,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>5212</v>
+        <v>5315</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.001040027640328097</v>
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.005207677471473819</v>
+        <v>0.005310143261584184</v>
       </c>
     </row>
     <row r="40">
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>4726</v>
+        <v>4436</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.001561018249876994</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.007874029248534144</v>
+        <v>0.007390444656565967</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>5007</v>
+        <v>5619</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.002500496287041462</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01249819825159211</v>
+        <v>0.01402680163458362</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>6870</v>
+        <v>6692</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.001937044305394531</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.006863895308123802</v>
+        <v>0.006686726923991384</v>
       </c>
     </row>
     <row r="41">
@@ -2965,19 +2965,19 @@
         <v>3117</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>8568</v>
+        <v>8028</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.005192482709580021</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.00159526638693271</v>
+        <v>0.001589426428182238</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01427471206782308</v>
+        <v>0.01337378236403307</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>4</v>
@@ -2986,19 +2986,19 @@
         <v>4283</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>11695</v>
+        <v>10064</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01069194008838282</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.002712492308028843</v>
+        <v>0.002728488185003525</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.02919566714967956</v>
+        <v>0.02512177796705445</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>7</v>
@@ -3007,19 +3007,19 @@
         <v>7400</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>14866</v>
+        <v>15906</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.007393640356521383</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.003227935856604877</v>
+        <v>0.00322570155823791</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01485343851608865</v>
+        <v>0.01589237698777239</v>
       </c>
     </row>
     <row r="42">
@@ -3036,19 +3036,19 @@
         <v>595162</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>589108</v>
+        <v>589315</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>598318</v>
+        <v>598252</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.991512397186333</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.981426000861137</v>
+        <v>0.9817715153586214</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9967689342871536</v>
+        <v>0.9966592264762012</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>359</v>
@@ -3057,19 +3057,19 @@
         <v>395304</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>388049</v>
+        <v>389177</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>398534</v>
+        <v>398546</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.9868075636245757</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.9686971407109665</v>
+        <v>0.9715126441776838</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.994869635572619</v>
+        <v>0.99490018395198</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>907</v>
@@ -3078,19 +3078,19 @@
         <v>990467</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>982293</v>
+        <v>981896</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>995509</v>
+        <v>995667</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.989629287697756</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.9814622053283001</v>
+        <v>0.9810661549738774</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9946671769898642</v>
+        <v>0.9948250800197029</v>
       </c>
     </row>
     <row r="43">
@@ -3185,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>8485</v>
+        <v>8910</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.0008780127920626552</v>
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.003236564322628877</v>
+        <v>0.00339884780108139</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>0</v>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>7280</v>
+        <v>7904</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.0005391537397452019</v>
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.001705219235926317</v>
+        <v>0.001851268949865502</v>
       </c>
     </row>
     <row r="45">
@@ -3245,19 +3245,19 @@
         <v>2617</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>724</v>
+        <v>0</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>7102</v>
+        <v>7140</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.0009982114680604031</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.0002763524158159796</v>
+        <v>0</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.002709134614138487</v>
+        <v>0.00272348994443007</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>4</v>
@@ -3266,19 +3266,19 @@
         <v>4018</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>9964</v>
+        <v>10144</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.002438329994593581</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.000607871825481171</v>
+        <v>0.0006109516406269073</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.006047067262122662</v>
+        <v>0.006156495177476352</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>7</v>
@@ -3287,19 +3287,19 @@
         <v>6634</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>2450</v>
+        <v>2890</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>13256</v>
+        <v>13351</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.001554008836319038</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.0005737923964170249</v>
+        <v>0.0006770016140866458</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.003105007624417039</v>
+        <v>0.003127155411810478</v>
       </c>
     </row>
     <row r="46">
@@ -3316,19 +3316,19 @@
         <v>10254</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>5155</v>
+        <v>5477</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>17323</v>
+        <v>18526</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.003911519485885098</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.001966396335122354</v>
+        <v>0.002089169772744311</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.006607797015536075</v>
+        <v>0.007066784431708968</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>6</v>
@@ -3337,19 +3337,19 @@
         <v>6229</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>2895</v>
+        <v>2131</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>13135</v>
+        <v>13730</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.003780568218250182</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.001757326267866234</v>
+        <v>0.001293256749823051</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.007971655578614519</v>
+        <v>0.008332880106544968</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>16</v>
@@ -3358,19 +3358,19 @@
         <v>16484</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>9512</v>
+        <v>9781</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>26463</v>
+        <v>27413</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.003860980333321851</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.002227922198143905</v>
+        <v>0.002291121288540986</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.006198476646616188</v>
+        <v>0.00642113742264974</v>
       </c>
     </row>
     <row r="47">
@@ -3387,19 +3387,19 @@
         <v>2606413</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>2597824</v>
+        <v>2596818</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>2612779</v>
+        <v>2612716</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.9942122562539918</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.9909361117159737</v>
+        <v>0.9905521511747255</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.9966404409214864</v>
+        <v>0.9966167366975157</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1512</v>
@@ -3408,19 +3408,19 @@
         <v>1637424</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1629103</v>
+        <v>1628709</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>1642529</v>
+        <v>1642750</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.9937811017871563</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.9887306125040924</v>
+        <v>0.9884916690090217</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.9968789534344463</v>
+        <v>0.9970135357517496</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>3962</v>
@@ -3429,19 +3429,19 @@
         <v>4243837</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>4231603</v>
+        <v>4231954</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>4252011</v>
+        <v>4252560</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.9940458570906139</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.9911802262329467</v>
+        <v>0.9912623308624855</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.9959603710012063</v>
+        <v>0.9960890393778221</v>
       </c>
     </row>
     <row r="48">
@@ -3871,19 +3871,19 @@
         <v>4212</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1107</v>
+        <v>1084</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11050</v>
+        <v>10215</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02020824612827827</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.005309485893421518</v>
+        <v>0.005199629490535915</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05301061468942078</v>
+        <v>0.04900731940029477</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -3905,19 +3905,19 @@
         <v>4212</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1232</v>
+        <v>1081</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>10304</v>
+        <v>10758</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01208083196700525</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.003532211114524715</v>
+        <v>0.00309963022183186</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02955205319857911</v>
+        <v>0.03085219503154413</v>
       </c>
     </row>
     <row r="7">
@@ -3934,19 +3934,19 @@
         <v>204236</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>197398</v>
+        <v>198233</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>207341</v>
+        <v>207364</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9797917538717217</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9469893853105789</v>
+        <v>0.9509926805997048</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9946905141065784</v>
+        <v>0.994800370509464</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>139</v>
@@ -3968,19 +3968,19 @@
         <v>344469</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>338377</v>
+        <v>337923</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>347449</v>
+        <v>347600</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9879191680329947</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.970447946801421</v>
+        <v>0.9691478049684559</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9964677888854754</v>
+        <v>0.9969003697781682</v>
       </c>
     </row>
     <row r="8">
@@ -5140,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>4988</v>
+        <v>4520</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.007127657475725041</v>
@@ -5149,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03994126955714056</v>
+        <v>0.0361921785903858</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1</v>
@@ -5161,7 +5161,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4229</v>
+        <v>4430</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.002820609272546821</v>
@@ -5170,7 +5170,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01340137208898984</v>
+        <v>0.01403796340988239</v>
       </c>
     </row>
     <row r="30">
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>6380</v>
+        <v>5472</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.008750024886275251</v>
@@ -5259,7 +5259,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05109095489371759</v>
+        <v>0.04381786188210163</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1</v>
@@ -5271,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>6206</v>
+        <v>5546</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.003462624489644527</v>
@@ -5280,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01966468282771099</v>
+        <v>0.0175735717209307</v>
       </c>
     </row>
     <row r="32">
@@ -5310,7 +5310,7 @@
         <v>122898</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>117261</v>
+        <v>117908</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>124881</v>
@@ -5319,7 +5319,7 @@
         <v>0.9841223176379997</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9389800753283944</v>
+        <v>0.9441607935684413</v>
       </c>
       <c r="P32" s="6" t="n">
         <v>1</v>
@@ -5331,7 +5331,7 @@
         <v>313591</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>309139</v>
+        <v>308869</v>
       </c>
       <c r="T32" s="5" t="n">
         <v>315574</v>
@@ -5340,7 +5340,7 @@
         <v>0.9937167662378087</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9796071755125849</v>
+        <v>0.9787516007372384</v>
       </c>
       <c r="W32" s="6" t="n">
         <v>1</v>
@@ -5451,7 +5451,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>4989</v>
+        <v>5506</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.002375699537377651</v>
@@ -5460,7 +5460,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01178357006562166</v>
+        <v>0.01300551320255814</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1</v>
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>5043</v>
+        <v>5053</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.001053551000747647</v>
@@ -5481,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.005282817912200238</v>
+        <v>0.005292919858065724</v>
       </c>
     </row>
     <row r="35">
@@ -5561,7 +5561,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>5251</v>
+        <v>4187</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.002194886762953666</v>
@@ -5570,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01240278871430947</v>
+        <v>0.009891142416343921</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1</v>
@@ -5582,7 +5582,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5938</v>
+        <v>4983</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.0009733659956806262</v>
@@ -5591,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.006220128940571531</v>
+        <v>0.005219955096948954</v>
       </c>
     </row>
     <row r="37">
@@ -5621,7 +5621,7 @@
         <v>421415</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>416536</v>
+        <v>416642</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>423350</v>
@@ -5630,7 +5630,7 @@
         <v>0.9954294136996686</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9839052263175067</v>
+        <v>0.9841552684544728</v>
       </c>
       <c r="P37" s="6" t="n">
         <v>1</v>
@@ -5642,7 +5642,7 @@
         <v>952696</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>947720</v>
+        <v>947843</v>
       </c>
       <c r="T37" s="5" t="n">
         <v>954631</v>
@@ -5651,7 +5651,7 @@
         <v>0.9979730830035717</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9927606188282189</v>
+        <v>0.9928896081280908</v>
       </c>
       <c r="W37" s="6" t="n">
         <v>1</v>
@@ -5762,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>6257</v>
+        <v>6232</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.005048328922076122</v>
@@ -5771,7 +5771,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.015324854540729</v>
+        <v>0.01526293852580642</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>2</v>
@@ -5783,7 +5783,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>7193</v>
+        <v>7343</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.002044791739893274</v>
@@ -5792,7 +5792,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.00713612014941386</v>
+        <v>0.007284722605871355</v>
       </c>
     </row>
     <row r="40">
@@ -5812,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>5097</v>
+        <v>4649</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.001701742364050367</v>
@@ -5821,7 +5821,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.008499338581529601</v>
+        <v>0.00775252502975634</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>0</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>4732</v>
+        <v>6140</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.001012463043477568</v>
@@ -5855,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.004694006177210957</v>
+        <v>0.006091543274665841</v>
       </c>
     </row>
     <row r="41">
@@ -5919,7 +5919,7 @@
         <v>598692</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>594616</v>
+        <v>595064</v>
       </c>
       <c r="F42" s="5" t="n">
         <v>599713</v>
@@ -5928,7 +5928,7 @@
         <v>0.9982982576359496</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.9915006614184705</v>
+        <v>0.9922474749702447</v>
       </c>
       <c r="I42" s="6" t="n">
         <v>1</v>
@@ -5940,7 +5940,7 @@
         <v>406221</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>402025</v>
+        <v>402050</v>
       </c>
       <c r="M42" s="5" t="n">
         <v>408282</v>
@@ -5949,7 +5949,7 @@
         <v>0.9949516710779239</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.9846751454592709</v>
+        <v>0.9847370614741937</v>
       </c>
       <c r="P42" s="6" t="n">
         <v>1</v>
@@ -5961,19 +5961,19 @@
         <v>1004913</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>999051</v>
+        <v>998785</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1007021</v>
+        <v>1007019</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.9969427452166292</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.9911266284495672</v>
+        <v>0.9908635368027917</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9990337960185205</v>
+        <v>0.9990314183960586</v>
       </c>
     </row>
     <row r="43">
@@ -6078,19 +6078,19 @@
         <v>3957</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>980</v>
+        <v>1012</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>9911</v>
+        <v>9885</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.002295333624128666</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.0005681780282503282</v>
+        <v>0.0005871086643824994</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.005749113733114211</v>
+        <v>0.00573415478114423</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>4</v>
@@ -6099,19 +6099,19 @@
         <v>3957</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>11032</v>
+        <v>10237</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.0009199581903943525</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.0002529818349238565</v>
+        <v>0.0002523430997993667</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.002564847299456905</v>
+        <v>0.002380050327720276</v>
       </c>
     </row>
     <row r="45">
@@ -6131,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>5611</v>
+        <v>5986</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.0003959711911594336</v>
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.002176995976395667</v>
+        <v>0.002322599569026816</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>0</v>
@@ -6165,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>5094</v>
+        <v>6113</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.0002372679261359831</v>
@@ -6174,7 +6174,7 @@
         <v>0</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.001184225031725385</v>
+        <v>0.001421258706474963</v>
       </c>
     </row>
     <row r="46">
@@ -6191,19 +6191,19 @@
         <v>4212</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>1086</v>
+        <v>1090</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>9741</v>
+        <v>10010</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.001634375548692954</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.0004213693587859381</v>
+        <v>0.0004229240608732927</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.003779438779397292</v>
+        <v>0.003883995412851201</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>2</v>
@@ -6215,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>6815</v>
+        <v>7166</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.001172852916386559</v>
@@ -6224,7 +6224,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.003952988791775536</v>
+        <v>0.004156762399497167</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>6</v>
@@ -6236,16 +6236,16 @@
         <v>2179</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>13015</v>
+        <v>12609</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.001449399595228322</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.0005066251031808292</v>
+        <v>0.0005065915108083796</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.003025920063158045</v>
+        <v>0.002931468280705846</v>
       </c>
     </row>
     <row r="47">
@@ -6262,19 +6262,19 @@
         <v>2572120</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>2566240</v>
+        <v>2564968</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>2575476</v>
+        <v>2575469</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.9979696532601476</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.9956883930761722</v>
+        <v>0.9951947538120423</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.9992717582997148</v>
+        <v>0.999268924422508</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1675</v>
@@ -6283,19 +6283,19 @@
         <v>1717955</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1711309</v>
+        <v>1711152</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>1721860</v>
+        <v>1721839</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.9965318134594848</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.9926766104388631</v>
+        <v>0.9925854805742134</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.9987969736102615</v>
+        <v>0.9987849519338663</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>4099</v>
@@ -6304,19 +6304,19 @@
         <v>4290075</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>4281209</v>
+        <v>4281520</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>4295357</v>
+        <v>4295912</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.9973933742882414</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.9953321589119136</v>
+        <v>0.9954043454851147</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.9986212487466877</v>
+        <v>0.9987504807047001</v>
       </c>
     </row>
     <row r="48">
